--- a/cs.xlsx
+++ b/cs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -142,13 +142,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1644"/>
+  <dimension ref="A1:D1662"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1634" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1656" activeCellId="0" sqref="M1656"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13336,6 +13336,150 @@
       </c>
       <c r="B1644" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1645" s="0" t="n">
+        <v>3963279</v>
+      </c>
+      <c r="B1645" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1646" s="0" t="n">
+        <v>3963283</v>
+      </c>
+      <c r="B1646" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1647" s="0" t="n">
+        <v>3963280</v>
+      </c>
+      <c r="B1647" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1648" s="0" t="n">
+        <v>3963284</v>
+      </c>
+      <c r="B1648" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="0" t="n">
+        <v>3963285</v>
+      </c>
+      <c r="B1649" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="0" t="n">
+        <v>3963286</v>
+      </c>
+      <c r="B1650" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="0" t="n">
+        <v>3963281</v>
+      </c>
+      <c r="B1651" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="0" t="n">
+        <v>3963278</v>
+      </c>
+      <c r="B1652" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="0" t="n">
+        <v>3963282</v>
+      </c>
+      <c r="B1653" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="0" t="n">
+        <v>3963288</v>
+      </c>
+      <c r="B1654" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="0" t="n">
+        <v>3963292</v>
+      </c>
+      <c r="B1655" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="0" t="n">
+        <v>3963289</v>
+      </c>
+      <c r="B1656" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="0" t="n">
+        <v>3963293</v>
+      </c>
+      <c r="B1657" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="0" t="n">
+        <v>3963294</v>
+      </c>
+      <c r="B1658" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="0" t="n">
+        <v>3963295</v>
+      </c>
+      <c r="B1659" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="0" t="n">
+        <v>3963290</v>
+      </c>
+      <c r="B1660" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="0" t="n">
+        <v>3963287</v>
+      </c>
+      <c r="B1661" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1662" s="0" t="n">
+        <v>3963291</v>
+      </c>
+      <c r="B1662" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -142,13 +142,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1662"/>
+  <dimension ref="A1:D1671"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1626" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1671" activeCellId="0" sqref="B1671"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13479,6 +13479,78 @@
         <v>3963291</v>
       </c>
       <c r="B1662" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1663" s="0" t="n">
+        <v>3919011</v>
+      </c>
+      <c r="B1663" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1664" s="0" t="n">
+        <v>3955979</v>
+      </c>
+      <c r="B1664" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1665" s="0" t="n">
+        <v>3943566</v>
+      </c>
+      <c r="B1665" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1666" s="0" t="n">
+        <v>3983589</v>
+      </c>
+      <c r="B1666" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="0" t="n">
+        <v>3909059</v>
+      </c>
+      <c r="B1667" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="0" t="n">
+        <v>3937882</v>
+      </c>
+      <c r="B1668" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="0" t="n">
+        <v>4040221</v>
+      </c>
+      <c r="B1669" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="0" t="n">
+        <v>4040222</v>
+      </c>
+      <c r="B1670" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="0" t="n">
+        <v>4040223</v>
+      </c>
+      <c r="B1671" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -142,13 +142,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3178"/>
+  <dimension ref="A1:D3191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2857" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2890" activeCellId="0" sqref="K2890"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3148" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3191" activeCellId="0" sqref="B3191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -25607,6 +25607,110 @@
         <v>4044907</v>
       </c>
       <c r="B3178" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3179" s="0" t="n">
+        <v>4095928</v>
+      </c>
+      <c r="B3179" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3180" s="0" t="n">
+        <v>3340044</v>
+      </c>
+      <c r="B3180" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3181" s="0" t="n">
+        <v>4095938</v>
+      </c>
+      <c r="B3181" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3182" s="0" t="n">
+        <v>4096201</v>
+      </c>
+      <c r="B3182" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3183" s="0" t="n">
+        <v>4096200</v>
+      </c>
+      <c r="B3183" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3184" s="0" t="n">
+        <v>4096199</v>
+      </c>
+      <c r="B3184" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3185" s="0" t="n">
+        <v>4096198</v>
+      </c>
+      <c r="B3185" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3186" s="0" t="n">
+        <v>4096197</v>
+      </c>
+      <c r="B3186" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3187" s="0" t="n">
+        <v>4096213</v>
+      </c>
+      <c r="B3187" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3188" s="0" t="n">
+        <v>4096212</v>
+      </c>
+      <c r="B3188" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3189" s="0" t="n">
+        <v>4096211</v>
+      </c>
+      <c r="B3189" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3190" s="0" t="n">
+        <v>4096210</v>
+      </c>
+      <c r="B3190" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3191" s="0" t="n">
+        <v>4096209</v>
+      </c>
+      <c r="B3191" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -142,10 +142,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3191"/>
+  <dimension ref="A1:D3192"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3148" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3191" activeCellId="0" sqref="B3191"/>
+      <selection pane="topLeft" activeCell="M3175" activeCellId="0" sqref="M3175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25712,6 +25712,14 @@
       </c>
       <c r="B3191" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3192" s="0" t="n">
+        <v>3999215</v>
+      </c>
+      <c r="B3192" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -142,13 +142,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3192"/>
+  <dimension ref="A1:D3195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3148" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3175" activeCellId="0" sqref="M3175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3163" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3195" activeCellId="0" sqref="B3195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -25720,6 +25720,30 @@
       </c>
       <c r="B3192" s="0" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3193" s="0" t="n">
+        <v>4028620</v>
+      </c>
+      <c r="B3193" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3194" s="0" t="n">
+        <v>4048063</v>
+      </c>
+      <c r="B3194" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3195" s="0" t="n">
+        <v>4101241</v>
+      </c>
+      <c r="B3195" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27F8DD0-4CBD-1643-881C-AC33BEB0EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DA52CB-4DD6-354E-BDA5-AB4B3B771B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26700" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3197"/>
+  <dimension ref="A1:D3199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3185" zoomScale="67" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3197" sqref="E3197"/>
+    <sheetView tabSelected="1" topLeftCell="A3177" zoomScale="67" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3200" sqref="A3200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26016,6 +26016,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3198">
+        <v>4226646</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3199">
+        <v>4226635</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DA52CB-4DD6-354E-BDA5-AB4B3B771B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B47952-8483-FC4C-9994-37BAA9257A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26700" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D3199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3177" zoomScale="67" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3200" sqref="A3200"/>
+      <selection activeCell="A3198" sqref="A3198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B2AD76-E580-7D42-889F-5E9D871826BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E30701E-217C-F244-A56A-EB3C0F1636AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3203"/>
+  <dimension ref="A1:D3218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3189" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E3197" sqref="E3197"/>
+      <selection activeCell="B3224" sqref="B3224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26072,6 +26072,126 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3204">
+        <v>4107268</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3205">
+        <v>4303051</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3206">
+        <v>4303055</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3207">
+        <v>4131598</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3208">
+        <v>4303157</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3209">
+        <v>4303158</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3210">
+        <v>4130775</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3211">
+        <v>4303164</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3212">
+        <v>4303165</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3213">
+        <v>4157185</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3214">
+        <v>4303170</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3215">
+        <v>4303171</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3216">
+        <v>4222946</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3217">
+        <v>4303181</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3218">
+        <v>4303182</v>
+      </c>
+      <c r="B3218" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E30701E-217C-F244-A56A-EB3C0F1636AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991950A3-097D-FB41-B1B7-2A749ECCAEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -105,9 +105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -251,7 +251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -393,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3218"/>
+  <dimension ref="A1:D3221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3189" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B3224" sqref="B3224"/>
+      <selection activeCell="B3235" sqref="B3235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26192,6 +26192,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3219">
+        <v>1052411</v>
+      </c>
+      <c r="B3219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3220">
+        <v>1063949</v>
+      </c>
+      <c r="B3220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3221">
+        <v>4331106</v>
+      </c>
+      <c r="B3221" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991950A3-097D-FB41-B1B7-2A749ECCAEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EF3F46-9D67-FD4F-BE32-A26FE9F4C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3221"/>
+  <dimension ref="A1:D3227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3189" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B3235" sqref="B3235"/>
+      <selection activeCell="B3234" sqref="B3234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26216,6 +26216,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3222">
+        <v>4390133</v>
+      </c>
+      <c r="B3222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3223">
+        <v>4390134</v>
+      </c>
+      <c r="B3223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3224">
+        <v>4390160</v>
+      </c>
+      <c r="B3224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3225">
+        <v>4390161</v>
+      </c>
+      <c r="B3225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3226">
+        <v>4390167</v>
+      </c>
+      <c r="B3226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3227">
+        <v>4390168</v>
+      </c>
+      <c r="B3227" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EF3F46-9D67-FD4F-BE32-A26FE9F4C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACDB108-0032-2942-9F4E-D7C4D163A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3227"/>
+  <dimension ref="A1:D3226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3189" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B3234" sqref="B3234"/>
+      <selection activeCell="O3230" sqref="O3230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26256,14 +26256,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3227">
-        <v>4390168</v>
-      </c>
-      <c r="B3227" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACDB108-0032-2942-9F4E-D7C4D163A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C86AF8-7398-9945-82D1-32637223F5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3226"/>
+  <dimension ref="A1:D3227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3189" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="O3230" sqref="O3230"/>
+      <selection activeCell="A3227" sqref="A3227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26256,6 +26256,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3227">
+        <v>4417291</v>
+      </c>
+      <c r="B3227" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C86AF8-7398-9945-82D1-32637223F5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717BFD2-5BC9-B94D-9796-D49BF2972BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -105,9 +105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -251,7 +251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -393,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3227"/>
+  <dimension ref="A1:D3237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3189" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="A3227" sqref="A3227"/>
+      <selection activeCell="B3245" sqref="B3245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26264,6 +26264,86 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3228">
+        <v>4501110</v>
+      </c>
+      <c r="B3228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3229">
+        <v>4501115</v>
+      </c>
+      <c r="B3229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3230">
+        <v>4501176</v>
+      </c>
+      <c r="B3230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3231">
+        <v>4501177</v>
+      </c>
+      <c r="B3231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3232">
+        <v>4501193</v>
+      </c>
+      <c r="B3232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3233">
+        <v>4501194</v>
+      </c>
+      <c r="B3233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3234">
+        <v>4501201</v>
+      </c>
+      <c r="B3234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3235">
+        <v>4501202</v>
+      </c>
+      <c r="B3235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3236">
+        <v>4501210</v>
+      </c>
+      <c r="B3236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3237">
+        <v>4501211</v>
+      </c>
+      <c r="B3237" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717BFD2-5BC9-B94D-9796-D49BF2972BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1773B3-0B2D-D14A-BEB7-42CABD1FC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3237"/>
+  <dimension ref="A1:D3238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3189" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B3245" sqref="B3245"/>
+    <sheetView tabSelected="1" topLeftCell="A3202" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="B3242" sqref="B3242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26344,6 +26344,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3238">
+        <v>4488310</v>
+      </c>
+      <c r="B3238" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1773B3-0B2D-D14A-BEB7-42CABD1FC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA485CCC-6320-4A4F-9225-973AA1B90086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -105,9 +105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -251,7 +251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -393,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3238"/>
+  <dimension ref="A1:D3243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3202" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B3242" sqref="B3242"/>
+      <selection activeCell="B3249" sqref="B3249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26352,6 +26352,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3239">
+        <v>4390167</v>
+      </c>
+      <c r="B3239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3240">
+        <v>4534287</v>
+      </c>
+      <c r="B3240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3241">
+        <v>4400437</v>
+      </c>
+      <c r="B3241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3242">
+        <v>4534299</v>
+      </c>
+      <c r="B3242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3243">
+        <v>4534300</v>
+      </c>
+      <c r="B3243" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA485CCC-6320-4A4F-9225-973AA1B90086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446968B-F03E-0E4B-8476-0CD0B4AC5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30920" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="19900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3243"/>
+  <dimension ref="A1:D3273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3202" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B3249" sqref="B3249"/>
+    <sheetView tabSelected="1" topLeftCell="A3221" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3271" sqref="B3271:B3273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26392,6 +26392,246 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3244">
+        <v>4400467</v>
+      </c>
+      <c r="B3244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3245">
+        <v>4628617</v>
+      </c>
+      <c r="B3245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3246">
+        <v>4628618</v>
+      </c>
+      <c r="B3246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3247">
+        <v>4387203</v>
+      </c>
+      <c r="B3247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3248">
+        <v>4628642</v>
+      </c>
+      <c r="B3248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3249">
+        <v>4628643</v>
+      </c>
+      <c r="B3249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3250">
+        <v>4386136</v>
+      </c>
+      <c r="B3250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3251">
+        <v>4628650</v>
+      </c>
+      <c r="B3251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3252">
+        <v>4628651</v>
+      </c>
+      <c r="B3252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3253">
+        <v>4373574</v>
+      </c>
+      <c r="B3253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3254">
+        <v>4628667</v>
+      </c>
+      <c r="B3254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3255">
+        <v>4628668</v>
+      </c>
+      <c r="B3255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3256">
+        <v>4367560</v>
+      </c>
+      <c r="B3256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3257">
+        <v>4628685</v>
+      </c>
+      <c r="B3257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3258">
+        <v>4628686</v>
+      </c>
+      <c r="B3258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3259">
+        <v>4364283</v>
+      </c>
+      <c r="B3259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3260">
+        <v>4628692</v>
+      </c>
+      <c r="B3260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3261">
+        <v>4628693</v>
+      </c>
+      <c r="B3261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3262">
+        <v>4355380</v>
+      </c>
+      <c r="B3262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3263">
+        <v>4628701</v>
+      </c>
+      <c r="B3263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3264">
+        <v>4628702</v>
+      </c>
+      <c r="B3264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3265">
+        <v>4347126</v>
+      </c>
+      <c r="B3265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3266">
+        <v>4628713</v>
+      </c>
+      <c r="B3266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3267">
+        <v>4628714</v>
+      </c>
+      <c r="B3267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3268">
+        <v>4341330</v>
+      </c>
+      <c r="B3268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3269">
+        <v>4628718</v>
+      </c>
+      <c r="B3269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3270">
+        <v>4628719</v>
+      </c>
+      <c r="B3270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3271">
+        <v>4330873</v>
+      </c>
+      <c r="B3271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3272">
+        <v>4628732</v>
+      </c>
+      <c r="B3272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3273">
+        <v>4628733</v>
+      </c>
+      <c r="B3273" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446968B-F03E-0E4B-8476-0CD0B4AC5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D2BE17-1A69-BD4A-B422-3A7E39D26D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="19900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3273"/>
+  <dimension ref="A1:D3281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3221" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3271" sqref="B3271:B3273"/>
+    <sheetView tabSelected="1" topLeftCell="A3243" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3281" sqref="B3281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26632,6 +26632,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3274">
+        <v>4489353</v>
+      </c>
+      <c r="B3274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3275">
+        <v>4556688</v>
+      </c>
+      <c r="B3275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3276">
+        <v>4375547</v>
+      </c>
+      <c r="B3276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3277">
+        <v>4454993</v>
+      </c>
+      <c r="B3277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3278">
+        <v>4510727</v>
+      </c>
+      <c r="B3278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3279">
+        <v>4446607</v>
+      </c>
+      <c r="B3279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3280">
+        <v>4629058</v>
+      </c>
+      <c r="B3280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3281">
+        <v>4629072</v>
+      </c>
+      <c r="B3281" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D2BE17-1A69-BD4A-B422-3A7E39D26D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F660646-E88A-1E4A-A4B2-C0FEB7BAA7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3281"/>
+  <dimension ref="A1:D3289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3243" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3281" sqref="B3281"/>
+      <selection activeCell="A3288" sqref="A3288:A3289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26696,6 +26696,70 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3282">
+        <v>4832239</v>
+      </c>
+      <c r="B3282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3283">
+        <v>4832240</v>
+      </c>
+      <c r="B3283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3284">
+        <v>4832305</v>
+      </c>
+      <c r="B3284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3285">
+        <v>4832306</v>
+      </c>
+      <c r="B3285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3286">
+        <v>4832345</v>
+      </c>
+      <c r="B3286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3287">
+        <v>4832346</v>
+      </c>
+      <c r="B3287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3288">
+        <v>4832374</v>
+      </c>
+      <c r="B3288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3289">
+        <v>4832375</v>
+      </c>
+      <c r="B3289" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F660646-E88A-1E4A-A4B2-C0FEB7BAA7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0390B9F-3D16-6049-AC3A-43431D71CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3289"/>
+  <dimension ref="A1:D3295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3243" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3288" sqref="A3288:A3289"/>
+    <sheetView tabSelected="1" topLeftCell="A3255" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3294" sqref="A3294:A3295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26760,6 +26760,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3290">
+        <v>4832436</v>
+      </c>
+      <c r="B3290" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3291">
+        <v>4832437</v>
+      </c>
+      <c r="B3291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3292">
+        <v>4832501</v>
+      </c>
+      <c r="B3292" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3293">
+        <v>4832502</v>
+      </c>
+      <c r="B3293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3294">
+        <v>4832552</v>
+      </c>
+      <c r="B3294" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3295">
+        <v>4832553</v>
+      </c>
+      <c r="B3295" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0390B9F-3D16-6049-AC3A-43431D71CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBB615B-167D-E54C-BB34-628981C31C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3295"/>
+  <dimension ref="A1:D3344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3255" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3294" sqref="A3294:A3295"/>
+    <sheetView tabSelected="1" topLeftCell="A3310" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3344" sqref="A3344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26808,6 +26808,398 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3296">
+        <v>4833319</v>
+      </c>
+      <c r="B3296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3297">
+        <v>4833320</v>
+      </c>
+      <c r="B3297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3298">
+        <v>4833401</v>
+      </c>
+      <c r="B3298" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3299">
+        <v>4833402</v>
+      </c>
+      <c r="B3299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3300">
+        <v>4833547</v>
+      </c>
+      <c r="B3300" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3301">
+        <v>4833548</v>
+      </c>
+      <c r="B3301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3302">
+        <v>4833549</v>
+      </c>
+      <c r="B3302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3303">
+        <v>4833550</v>
+      </c>
+      <c r="B3303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3304">
+        <v>4833545</v>
+      </c>
+      <c r="B3304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3305">
+        <v>4833546</v>
+      </c>
+      <c r="B3305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3306">
+        <v>4833541</v>
+      </c>
+      <c r="B3306" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3307">
+        <v>4833542</v>
+      </c>
+      <c r="B3307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3308">
+        <v>4833537</v>
+      </c>
+      <c r="B3308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3309">
+        <v>4833538</v>
+      </c>
+      <c r="B3309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3310">
+        <v>4833539</v>
+      </c>
+      <c r="B3310" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3311">
+        <v>4833540</v>
+      </c>
+      <c r="B3311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3312">
+        <v>4833543</v>
+      </c>
+      <c r="B3312" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3313">
+        <v>4833544</v>
+      </c>
+      <c r="B3313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3314">
+        <v>4833535</v>
+      </c>
+      <c r="B3314" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3315">
+        <v>4833536</v>
+      </c>
+      <c r="B3315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3316">
+        <v>4833533</v>
+      </c>
+      <c r="B3316" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3317">
+        <v>4833534</v>
+      </c>
+      <c r="B3317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3318">
+        <v>4833531</v>
+      </c>
+      <c r="B3318" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3319">
+        <v>4833532</v>
+      </c>
+      <c r="B3319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3320">
+        <v>4833529</v>
+      </c>
+      <c r="B3320" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3321">
+        <v>4833530</v>
+      </c>
+      <c r="B3321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3322">
+        <v>4833527</v>
+      </c>
+      <c r="B3322" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3323">
+        <v>4833528</v>
+      </c>
+      <c r="B3323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3324">
+        <v>4833525</v>
+      </c>
+      <c r="B3324" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3325">
+        <v>4833526</v>
+      </c>
+      <c r="B3325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3326">
+        <v>4833523</v>
+      </c>
+      <c r="B3326" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3327">
+        <v>4833524</v>
+      </c>
+      <c r="B3327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3328">
+        <v>4833521</v>
+      </c>
+      <c r="B3328" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3329">
+        <v>4833522</v>
+      </c>
+      <c r="B3329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3330">
+        <v>4833519</v>
+      </c>
+      <c r="B3330" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3331">
+        <v>4833520</v>
+      </c>
+      <c r="B3331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3332">
+        <v>4833517</v>
+      </c>
+      <c r="B3332" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3333">
+        <v>4833518</v>
+      </c>
+      <c r="B3333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3334">
+        <v>4833515</v>
+      </c>
+      <c r="B3334" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3335">
+        <v>4833516</v>
+      </c>
+      <c r="B3335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3336">
+        <v>4833513</v>
+      </c>
+      <c r="B3336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3337">
+        <v>4833514</v>
+      </c>
+      <c r="B3337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3338">
+        <v>4833511</v>
+      </c>
+      <c r="B3338" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3339">
+        <v>4833512</v>
+      </c>
+      <c r="B3339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3340">
+        <v>4833505</v>
+      </c>
+      <c r="B3340" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3341">
+        <v>4833506</v>
+      </c>
+      <c r="B3341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3342">
+        <v>4833507</v>
+      </c>
+      <c r="B3342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3343">
+        <v>4833508</v>
+      </c>
+      <c r="B3343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3344">
+        <v>4833510</v>
+      </c>
+      <c r="B3344" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBB615B-167D-E54C-BB34-628981C31C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34925726-EEB5-904F-BAD1-6D53FDFB5A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3344"/>
+  <dimension ref="A1:D3362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3310" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3344" sqref="A3344"/>
+      <selection activeCell="A3361" sqref="A3361:A3362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27200,6 +27200,150 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3345" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3345">
+        <v>4976994</v>
+      </c>
+      <c r="B3345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3346">
+        <v>4976995</v>
+      </c>
+      <c r="B3346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3347">
+        <v>4977008</v>
+      </c>
+      <c r="B3347" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3348">
+        <v>4977009</v>
+      </c>
+      <c r="B3348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3349">
+        <v>4977044</v>
+      </c>
+      <c r="B3349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3350">
+        <v>4977045</v>
+      </c>
+      <c r="B3350" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3351">
+        <v>4977074</v>
+      </c>
+      <c r="B3351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3352">
+        <v>4977075</v>
+      </c>
+      <c r="B3352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3353">
+        <v>4977115</v>
+      </c>
+      <c r="B3353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3354">
+        <v>4977116</v>
+      </c>
+      <c r="B3354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3355">
+        <v>4977132</v>
+      </c>
+      <c r="B3355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3356">
+        <v>4977133</v>
+      </c>
+      <c r="B3356" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3357">
+        <v>4977148</v>
+      </c>
+      <c r="B3357" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3358">
+        <v>4977149</v>
+      </c>
+      <c r="B3358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3359">
+        <v>4977175</v>
+      </c>
+      <c r="B3359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3360">
+        <v>4977176</v>
+      </c>
+      <c r="B3360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3361">
+        <v>4977191</v>
+      </c>
+      <c r="B3361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3362">
+        <v>4977192</v>
+      </c>
+      <c r="B3362" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34925726-EEB5-904F-BAD1-6D53FDFB5A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B2100-B9D4-B545-8A37-A21F8E28C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3362"/>
+  <dimension ref="A1:D3366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3310" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3361" sqref="A3361:A3362"/>
+      <selection activeCell="A3365" sqref="A3365:A3366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27344,6 +27344,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3363">
+        <v>4977336</v>
+      </c>
+      <c r="B3363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3364">
+        <v>4977337</v>
+      </c>
+      <c r="B3364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3365">
+        <v>4977349</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3366">
+        <v>4977350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B2100-B9D4-B545-8A37-A21F8E28C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A7919-435E-2641-8EBC-AFF9A3FF4684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D3366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3310" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3365" sqref="A3365:A3366"/>
+      <selection activeCell="E3335" sqref="E3335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27364,10 +27364,16 @@
       <c r="A3365">
         <v>4977349</v>
       </c>
+      <c r="B3365" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3366">
         <v>4977350</v>
+      </c>
+      <c r="B3366" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A7919-435E-2641-8EBC-AFF9A3FF4684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5614F8C-7030-9548-AF52-8454EDA57C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3366"/>
+  <dimension ref="A1:D3369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3310" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3335" sqref="E3335"/>
+      <selection activeCell="A3369" sqref="A3369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27376,6 +27376,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3367">
+        <v>5085248</v>
+      </c>
+      <c r="B3367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3368">
+        <v>5085292</v>
+      </c>
+      <c r="B3368" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3369">
+        <v>5085299</v>
+      </c>
+      <c r="B3369" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastanbaitursynov/Documents/GLOBERCE/oz-fmh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5614F8C-7030-9548-AF52-8454EDA57C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BB903E-6EA3-C349-9D14-B41739A9FCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="16800" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="16800" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3369"/>
+  <dimension ref="A1:D3371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3310" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3369" sqref="A3369"/>
+    <sheetView tabSelected="1" topLeftCell="A3365" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3370" sqref="A3370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27400,6 +27400,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3370" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3370">
+        <v>5239620</v>
+      </c>
+      <c r="B3370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3371">
+        <v>5242079</v>
+      </c>
+      <c r="B3371" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
